--- a/zase4kak/bin/Debug/Учасники змагання.xlsx
+++ b/zase4kak/bin/Debug/Учасники змагання.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{53F9467B-B043-457A-B829-9ADD555739D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{679D1296-9E8B-499D-BEAD-165959AB5D0D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{158FB2F6-3FA5-4E94-B2B3-C2B2C5816A0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="660" windowWidth="21600" windowHeight="11385" xr2:uid="{2170E118-3535-4888-9CA3-5F79A86DAF17}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{6F81CAED-167F-4BC9-82F8-A176D96839FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -63,22 +63,13 @@
     <t>Щербина Юхим</t>
   </si>
   <si>
-    <t>ЛЬвів</t>
+    <t>Львів</t>
+  </si>
+  <si>
+    <t>КМСУ</t>
   </si>
   <si>
     <t>Демідов Олексій</t>
-  </si>
-  <si>
-    <t>Львів</t>
-  </si>
-  <si>
-    <t>КМСУ</t>
-  </si>
-  <si>
-    <t>Паращак Юрій</t>
-  </si>
-  <si>
-    <t>Смик БОгдан</t>
   </si>
 </sst>
 </file>
@@ -430,17 +421,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB7E85C-783B-4C11-B319-D3407DEA18E8}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAD2EF2-D0DD-4EF8-A783-24F5BE297DD0}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -494,8 +480,8 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,41 +489,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/Учасники змагання.xlsx
+++ b/zase4kak/bin/Debug/Учасники змагання.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{158FB2F6-3FA5-4E94-B2B3-C2B2C5816A0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10D3AC44-F261-4BA8-9746-A31546C0E714}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{6F81CAED-167F-4BC9-82F8-A176D96839FD}"/>
+    <workbookView xWindow="32085" yWindow="1005" windowWidth="21555" windowHeight="11385" xr2:uid="{57347B5B-A43C-42EB-910C-441DDF50A49F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>№</t>
   </si>
@@ -46,30 +46,6 @@
   </si>
   <si>
     <t>Розряд</t>
-  </si>
-  <si>
-    <t>Городецький Олег</t>
-  </si>
-  <si>
-    <t>Стрий</t>
-  </si>
-  <si>
-    <t>МСУ</t>
-  </si>
-  <si>
-    <t>Городецький Руслан</t>
-  </si>
-  <si>
-    <t>Щербина Юхим</t>
-  </si>
-  <si>
-    <t>Львів</t>
-  </si>
-  <si>
-    <t>КМСУ</t>
-  </si>
-  <si>
-    <t>Демідов Олексій</t>
   </si>
 </sst>
 </file>
@@ -421,8 +397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAD2EF2-D0DD-4EF8-A783-24F5BE297DD0}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5B70C9-A468-426A-B5C6-A03AF4BB5DF0}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,62 +418,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
